--- a/SIB/signals_simulation/Simulations.xlsx
+++ b/SIB/signals_simulation/Simulations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,12 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2nd_lowest-lowest_DEF</t>
+          <t>highest-second_lowest_DEF</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>highest-lowest_DEF</t>
         </is>
       </c>
     </row>
@@ -493,25 +498,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5036</v>
+        <v>617</v>
       </c>
       <c r="E2" t="n">
-        <v>5037</v>
+        <v>652</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.66666666666697</v>
+        <v>65.66666666666674</v>
       </c>
       <c r="G2" t="n">
-        <v>-9</v>
+        <v>-44</v>
       </c>
       <c r="H2" t="n">
-        <v>5042</v>
+        <v>586</v>
       </c>
       <c r="I2" t="n">
-        <v>5043</v>
+        <v>576</v>
       </c>
       <c r="J2" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K2" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="3">
@@ -527,25 +535,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5027</v>
+        <v>755</v>
       </c>
       <c r="E3" t="n">
-        <v>5037</v>
+        <v>652</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.66666666666697</v>
+        <v>65.66666666666674</v>
       </c>
       <c r="G3" t="n">
-        <v>-9</v>
+        <v>-44</v>
       </c>
       <c r="H3" t="n">
-        <v>5042</v>
+        <v>586</v>
       </c>
       <c r="I3" t="n">
-        <v>5043</v>
+        <v>576</v>
       </c>
       <c r="J3" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K3" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="4">
@@ -561,25 +572,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5046</v>
+        <v>546</v>
       </c>
       <c r="E4" t="n">
-        <v>5037</v>
+        <v>652</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.66666666666697</v>
+        <v>65.66666666666674</v>
       </c>
       <c r="G4" t="n">
-        <v>-9</v>
+        <v>-44</v>
       </c>
       <c r="H4" t="n">
-        <v>5042</v>
+        <v>586</v>
       </c>
       <c r="I4" t="n">
-        <v>5043</v>
+        <v>576</v>
       </c>
       <c r="J4" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K4" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="5">
@@ -595,25 +609,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5047</v>
+        <v>603</v>
       </c>
       <c r="E5" t="n">
-        <v>5037</v>
+        <v>652</v>
       </c>
       <c r="F5" t="n">
-        <v>-4.66666666666697</v>
+        <v>65.66666666666674</v>
       </c>
       <c r="G5" t="n">
-        <v>-9</v>
+        <v>-44</v>
       </c>
       <c r="H5" t="n">
-        <v>5042</v>
+        <v>586</v>
       </c>
       <c r="I5" t="n">
-        <v>5043</v>
+        <v>576</v>
       </c>
       <c r="J5" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K5" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="6">
@@ -629,25 +646,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5037</v>
+        <v>569</v>
       </c>
       <c r="E6" t="n">
-        <v>5037</v>
+        <v>652</v>
       </c>
       <c r="F6" t="n">
-        <v>-4.66666666666697</v>
+        <v>65.66666666666674</v>
       </c>
       <c r="G6" t="n">
-        <v>-9</v>
+        <v>-44</v>
       </c>
       <c r="H6" t="n">
-        <v>5042</v>
+        <v>586</v>
       </c>
       <c r="I6" t="n">
-        <v>5043</v>
+        <v>576</v>
       </c>
       <c r="J6" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K6" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="7">
@@ -663,25 +683,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5039</v>
+        <v>549</v>
       </c>
       <c r="E7" t="n">
-        <v>5037</v>
+        <v>652</v>
       </c>
       <c r="F7" t="n">
-        <v>-4.66666666666697</v>
+        <v>65.66666666666674</v>
       </c>
       <c r="G7" t="n">
-        <v>-9</v>
+        <v>-44</v>
       </c>
       <c r="H7" t="n">
-        <v>5042</v>
+        <v>586</v>
       </c>
       <c r="I7" t="n">
-        <v>5043</v>
+        <v>576</v>
       </c>
       <c r="J7" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K7" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="8">
@@ -697,25 +720,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5028</v>
+        <v>668</v>
       </c>
       <c r="E8" t="n">
-        <v>5037</v>
+        <v>652</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.66666666666697</v>
+        <v>65.66666666666674</v>
       </c>
       <c r="G8" t="n">
-        <v>-9</v>
+        <v>-44</v>
       </c>
       <c r="H8" t="n">
-        <v>5042</v>
+        <v>586</v>
       </c>
       <c r="I8" t="n">
-        <v>5043</v>
+        <v>576</v>
       </c>
       <c r="J8" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K8" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="9">
@@ -731,25 +757,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7991</v>
+        <v>685</v>
       </c>
       <c r="E9" t="n">
-        <v>7995</v>
+        <v>612</v>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>67.66666666666663</v>
       </c>
       <c r="G9" t="n">
-        <v>-8</v>
+        <v>-25</v>
       </c>
       <c r="H9" t="n">
-        <v>7990</v>
+        <v>563</v>
       </c>
       <c r="I9" t="n">
-        <v>7986</v>
+        <v>618</v>
       </c>
       <c r="J9" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K9" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="10">
@@ -765,25 +794,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8006</v>
+        <v>712</v>
       </c>
       <c r="E10" t="n">
-        <v>7995</v>
+        <v>612</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>67.66666666666663</v>
       </c>
       <c r="G10" t="n">
-        <v>-8</v>
+        <v>-25</v>
       </c>
       <c r="H10" t="n">
-        <v>7990</v>
+        <v>563</v>
       </c>
       <c r="I10" t="n">
-        <v>7986</v>
+        <v>618</v>
       </c>
       <c r="J10" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K10" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="11">
@@ -799,25 +831,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7999</v>
+        <v>565</v>
       </c>
       <c r="E11" t="n">
-        <v>7995</v>
+        <v>612</v>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>67.66666666666663</v>
       </c>
       <c r="G11" t="n">
-        <v>-8</v>
+        <v>-25</v>
       </c>
       <c r="H11" t="n">
-        <v>7990</v>
+        <v>563</v>
       </c>
       <c r="I11" t="n">
-        <v>7986</v>
+        <v>618</v>
       </c>
       <c r="J11" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K11" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="12">
@@ -833,25 +868,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7992</v>
+        <v>603</v>
       </c>
       <c r="E12" t="n">
-        <v>7995</v>
+        <v>612</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>67.66666666666663</v>
       </c>
       <c r="G12" t="n">
-        <v>-8</v>
+        <v>-25</v>
       </c>
       <c r="H12" t="n">
-        <v>7990</v>
+        <v>563</v>
       </c>
       <c r="I12" t="n">
-        <v>7986</v>
+        <v>618</v>
       </c>
       <c r="J12" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K12" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="13">
@@ -867,25 +905,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7988</v>
+        <v>523</v>
       </c>
       <c r="E13" t="n">
-        <v>7995</v>
+        <v>612</v>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>67.66666666666663</v>
       </c>
       <c r="G13" t="n">
-        <v>-8</v>
+        <v>-25</v>
       </c>
       <c r="H13" t="n">
-        <v>7990</v>
+        <v>563</v>
       </c>
       <c r="I13" t="n">
-        <v>7986</v>
+        <v>618</v>
       </c>
       <c r="J13" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K13" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="14">
@@ -901,25 +942,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7980</v>
+        <v>633</v>
       </c>
       <c r="E14" t="n">
-        <v>7995</v>
+        <v>612</v>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>67.66666666666663</v>
       </c>
       <c r="G14" t="n">
-        <v>-8</v>
+        <v>-25</v>
       </c>
       <c r="H14" t="n">
-        <v>7990</v>
+        <v>563</v>
       </c>
       <c r="I14" t="n">
-        <v>7986</v>
+        <v>618</v>
       </c>
       <c r="J14" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K14" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="15">
@@ -935,25 +979,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7985</v>
+        <v>532</v>
       </c>
       <c r="E15" t="n">
-        <v>7995</v>
+        <v>612</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>67.66666666666663</v>
       </c>
       <c r="G15" t="n">
-        <v>-8</v>
+        <v>-25</v>
       </c>
       <c r="H15" t="n">
-        <v>7990</v>
+        <v>563</v>
       </c>
       <c r="I15" t="n">
-        <v>7986</v>
+        <v>618</v>
       </c>
       <c r="J15" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K15" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="16">
@@ -969,25 +1016,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5482</v>
+        <v>232</v>
       </c>
       <c r="E16" t="n">
-        <v>5495</v>
+        <v>327</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.66666666666697</v>
+        <v>-57.66666666666663</v>
       </c>
       <c r="G16" t="n">
-        <v>-11</v>
+        <v>-31</v>
       </c>
       <c r="H16" t="n">
-        <v>5493</v>
+        <v>375</v>
       </c>
       <c r="I16" t="n">
-        <v>5500</v>
+        <v>402</v>
       </c>
       <c r="J16" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K16" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="17">
@@ -1003,25 +1053,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5494</v>
+        <v>301</v>
       </c>
       <c r="E17" t="n">
-        <v>5495</v>
+        <v>327</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.66666666666697</v>
+        <v>-57.66666666666663</v>
       </c>
       <c r="G17" t="n">
-        <v>-11</v>
+        <v>-31</v>
       </c>
       <c r="H17" t="n">
-        <v>5493</v>
+        <v>375</v>
       </c>
       <c r="I17" t="n">
-        <v>5500</v>
+        <v>402</v>
       </c>
       <c r="J17" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K17" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="18">
@@ -1037,25 +1090,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5500</v>
+        <v>444</v>
       </c>
       <c r="E18" t="n">
-        <v>5495</v>
+        <v>327</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.66666666666697</v>
+        <v>-57.66666666666663</v>
       </c>
       <c r="G18" t="n">
-        <v>-11</v>
+        <v>-31</v>
       </c>
       <c r="H18" t="n">
-        <v>5493</v>
+        <v>375</v>
       </c>
       <c r="I18" t="n">
-        <v>5500</v>
+        <v>402</v>
       </c>
       <c r="J18" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K18" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="19">
@@ -1071,25 +1127,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5502</v>
+        <v>404</v>
       </c>
       <c r="E19" t="n">
-        <v>5495</v>
+        <v>327</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.66666666666697</v>
+        <v>-57.66666666666663</v>
       </c>
       <c r="G19" t="n">
-        <v>-11</v>
+        <v>-31</v>
       </c>
       <c r="H19" t="n">
-        <v>5493</v>
+        <v>375</v>
       </c>
       <c r="I19" t="n">
-        <v>5500</v>
+        <v>402</v>
       </c>
       <c r="J19" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K19" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="20">
@@ -1105,25 +1164,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5484</v>
+        <v>346</v>
       </c>
       <c r="E20" t="n">
-        <v>5495</v>
+        <v>327</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.66666666666697</v>
+        <v>-57.66666666666663</v>
       </c>
       <c r="G20" t="n">
-        <v>-11</v>
+        <v>-31</v>
       </c>
       <c r="H20" t="n">
-        <v>5493</v>
+        <v>375</v>
       </c>
       <c r="I20" t="n">
-        <v>5500</v>
+        <v>402</v>
       </c>
       <c r="J20" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K20" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="21">
@@ -1139,25 +1201,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5498</v>
+        <v>400</v>
       </c>
       <c r="E21" t="n">
-        <v>5495</v>
+        <v>327</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.66666666666697</v>
+        <v>-57.66666666666663</v>
       </c>
       <c r="G21" t="n">
-        <v>-11</v>
+        <v>-31</v>
       </c>
       <c r="H21" t="n">
-        <v>5493</v>
+        <v>375</v>
       </c>
       <c r="I21" t="n">
-        <v>5500</v>
+        <v>402</v>
       </c>
       <c r="J21" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K21" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="22">
@@ -1173,25 +1238,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5504</v>
+        <v>219</v>
       </c>
       <c r="E22" t="n">
-        <v>5495</v>
+        <v>327</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.66666666666697</v>
+        <v>-57.66666666666663</v>
       </c>
       <c r="G22" t="n">
-        <v>-11</v>
+        <v>-31</v>
       </c>
       <c r="H22" t="n">
-        <v>5493</v>
+        <v>375</v>
       </c>
       <c r="I22" t="n">
-        <v>5500</v>
+        <v>402</v>
       </c>
       <c r="J22" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K22" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="23">
@@ -1207,25 +1275,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7738</v>
+        <v>112</v>
       </c>
       <c r="E23" t="n">
-        <v>7728</v>
+        <v>120</v>
       </c>
       <c r="F23" t="n">
-        <v>-2</v>
+        <v>58</v>
       </c>
       <c r="G23" t="n">
-        <v>-11</v>
+        <v>-108</v>
       </c>
       <c r="H23" t="n">
-        <v>7735</v>
+        <v>90</v>
       </c>
       <c r="I23" t="n">
-        <v>7732</v>
+        <v>88</v>
       </c>
       <c r="J23" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K23" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="24">
@@ -1241,25 +1312,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7734</v>
+        <v>47</v>
       </c>
       <c r="E24" t="n">
-        <v>7728</v>
+        <v>120</v>
       </c>
       <c r="F24" t="n">
-        <v>-2</v>
+        <v>58</v>
       </c>
       <c r="G24" t="n">
-        <v>-11</v>
+        <v>-108</v>
       </c>
       <c r="H24" t="n">
-        <v>7735</v>
+        <v>90</v>
       </c>
       <c r="I24" t="n">
-        <v>7732</v>
+        <v>88</v>
       </c>
       <c r="J24" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K24" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="25">
@@ -1275,25 +1349,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>7717</v>
+        <v>228</v>
       </c>
       <c r="E25" t="n">
-        <v>7728</v>
+        <v>120</v>
       </c>
       <c r="F25" t="n">
-        <v>-2</v>
+        <v>58</v>
       </c>
       <c r="G25" t="n">
-        <v>-11</v>
+        <v>-108</v>
       </c>
       <c r="H25" t="n">
-        <v>7735</v>
+        <v>90</v>
       </c>
       <c r="I25" t="n">
-        <v>7732</v>
+        <v>88</v>
       </c>
       <c r="J25" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K25" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="26">
@@ -1309,25 +1386,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7739</v>
+        <v>143</v>
       </c>
       <c r="E26" t="n">
-        <v>7728</v>
+        <v>120</v>
       </c>
       <c r="F26" t="n">
-        <v>-2</v>
+        <v>58</v>
       </c>
       <c r="G26" t="n">
-        <v>-11</v>
+        <v>-108</v>
       </c>
       <c r="H26" t="n">
-        <v>7735</v>
+        <v>90</v>
       </c>
       <c r="I26" t="n">
-        <v>7732</v>
+        <v>88</v>
       </c>
       <c r="J26" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K26" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="27">
@@ -1343,25 +1423,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>7731</v>
+        <v>37</v>
       </c>
       <c r="E27" t="n">
-        <v>7728</v>
+        <v>120</v>
       </c>
       <c r="F27" t="n">
-        <v>-2</v>
+        <v>58</v>
       </c>
       <c r="G27" t="n">
-        <v>-11</v>
+        <v>-108</v>
       </c>
       <c r="H27" t="n">
-        <v>7735</v>
+        <v>90</v>
       </c>
       <c r="I27" t="n">
-        <v>7732</v>
+        <v>88</v>
       </c>
       <c r="J27" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K27" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="28">
@@ -1377,25 +1460,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7725</v>
+        <v>33</v>
       </c>
       <c r="E28" t="n">
-        <v>7728</v>
+        <v>120</v>
       </c>
       <c r="F28" t="n">
-        <v>-2</v>
+        <v>58</v>
       </c>
       <c r="G28" t="n">
-        <v>-11</v>
+        <v>-108</v>
       </c>
       <c r="H28" t="n">
-        <v>7735</v>
+        <v>90</v>
       </c>
       <c r="I28" t="n">
-        <v>7732</v>
+        <v>88</v>
       </c>
       <c r="J28" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K28" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="29">
@@ -1411,25 +1497,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>7732</v>
+        <v>219</v>
       </c>
       <c r="E29" t="n">
-        <v>7728</v>
+        <v>120</v>
       </c>
       <c r="F29" t="n">
-        <v>-2</v>
+        <v>58</v>
       </c>
       <c r="G29" t="n">
-        <v>-11</v>
+        <v>-108</v>
       </c>
       <c r="H29" t="n">
-        <v>7735</v>
+        <v>90</v>
       </c>
       <c r="I29" t="n">
-        <v>7732</v>
+        <v>88</v>
       </c>
       <c r="J29" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K29" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="30">
@@ -1445,25 +1534,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>599</v>
+        <v>82</v>
       </c>
       <c r="E30" t="n">
-        <v>597</v>
+        <v>204</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.333333333333371</v>
+        <v>-81</v>
       </c>
       <c r="G30" t="n">
-        <v>-12</v>
+        <v>105</v>
       </c>
       <c r="H30" t="n">
-        <v>598</v>
+        <v>190</v>
       </c>
       <c r="I30" t="n">
-        <v>608</v>
+        <v>237</v>
       </c>
       <c r="J30" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K30" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="31">
@@ -1479,25 +1571,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>597</v>
+        <v>84</v>
       </c>
       <c r="E31" t="n">
-        <v>597</v>
+        <v>204</v>
       </c>
       <c r="F31" t="n">
-        <v>-5.333333333333371</v>
+        <v>-81</v>
       </c>
       <c r="G31" t="n">
-        <v>-12</v>
+        <v>105</v>
       </c>
       <c r="H31" t="n">
-        <v>598</v>
+        <v>190</v>
       </c>
       <c r="I31" t="n">
-        <v>608</v>
+        <v>237</v>
       </c>
       <c r="J31" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K31" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="32">
@@ -1513,25 +1608,28 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>591</v>
+        <v>284</v>
       </c>
       <c r="E32" t="n">
-        <v>597</v>
+        <v>204</v>
       </c>
       <c r="F32" t="n">
-        <v>-5.333333333333371</v>
+        <v>-81</v>
       </c>
       <c r="G32" t="n">
-        <v>-12</v>
+        <v>105</v>
       </c>
       <c r="H32" t="n">
-        <v>598</v>
+        <v>190</v>
       </c>
       <c r="I32" t="n">
-        <v>608</v>
+        <v>237</v>
       </c>
       <c r="J32" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K32" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="33">
@@ -1547,25 +1645,28 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>609</v>
+        <v>161</v>
       </c>
       <c r="E33" t="n">
-        <v>597</v>
+        <v>204</v>
       </c>
       <c r="F33" t="n">
-        <v>-5.333333333333371</v>
+        <v>-81</v>
       </c>
       <c r="G33" t="n">
-        <v>-12</v>
+        <v>105</v>
       </c>
       <c r="H33" t="n">
-        <v>598</v>
+        <v>190</v>
       </c>
       <c r="I33" t="n">
-        <v>608</v>
+        <v>237</v>
       </c>
       <c r="J33" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K33" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="34">
@@ -1581,25 +1682,28 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>587</v>
+        <v>219</v>
       </c>
       <c r="E34" t="n">
-        <v>597</v>
+        <v>204</v>
       </c>
       <c r="F34" t="n">
-        <v>-5.333333333333371</v>
+        <v>-81</v>
       </c>
       <c r="G34" t="n">
-        <v>-12</v>
+        <v>105</v>
       </c>
       <c r="H34" t="n">
-        <v>598</v>
+        <v>190</v>
       </c>
       <c r="I34" t="n">
-        <v>608</v>
+        <v>237</v>
       </c>
       <c r="J34" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K34" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="35">
@@ -1615,25 +1719,28 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>607</v>
+        <v>313</v>
       </c>
       <c r="E35" t="n">
-        <v>597</v>
+        <v>204</v>
       </c>
       <c r="F35" t="n">
-        <v>-5.333333333333371</v>
+        <v>-81</v>
       </c>
       <c r="G35" t="n">
-        <v>-12</v>
+        <v>105</v>
       </c>
       <c r="H35" t="n">
-        <v>598</v>
+        <v>190</v>
       </c>
       <c r="I35" t="n">
-        <v>608</v>
+        <v>237</v>
       </c>
       <c r="J35" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K35" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="36">
@@ -1649,25 +1756,28 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>594</v>
+        <v>111</v>
       </c>
       <c r="E36" t="n">
-        <v>597</v>
+        <v>204</v>
       </c>
       <c r="F36" t="n">
-        <v>-5.333333333333371</v>
+        <v>-81</v>
       </c>
       <c r="G36" t="n">
-        <v>-12</v>
+        <v>105</v>
       </c>
       <c r="H36" t="n">
-        <v>598</v>
+        <v>190</v>
       </c>
       <c r="I36" t="n">
-        <v>608</v>
+        <v>237</v>
       </c>
       <c r="J36" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K36" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1796,25 @@
         <v>454</v>
       </c>
       <c r="E37" t="n">
-        <v>464</v>
+        <v>545</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.333333333333371</v>
+        <v>-34.66666666666674</v>
       </c>
       <c r="G37" t="n">
-        <v>-11</v>
+        <v>110</v>
       </c>
       <c r="H37" t="n">
-        <v>467</v>
+        <v>586</v>
       </c>
       <c r="I37" t="n">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="J37" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K37" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="38">
@@ -1717,25 +1830,28 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>476</v>
+        <v>586</v>
       </c>
       <c r="E38" t="n">
-        <v>464</v>
+        <v>545</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.333333333333371</v>
+        <v>-34.66666666666674</v>
       </c>
       <c r="G38" t="n">
-        <v>-11</v>
+        <v>110</v>
       </c>
       <c r="H38" t="n">
-        <v>467</v>
+        <v>586</v>
       </c>
       <c r="I38" t="n">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="J38" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K38" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="39">
@@ -1751,25 +1867,28 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>463</v>
+        <v>585</v>
       </c>
       <c r="E39" t="n">
-        <v>464</v>
+        <v>545</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.333333333333371</v>
+        <v>-34.66666666666674</v>
       </c>
       <c r="G39" t="n">
-        <v>-11</v>
+        <v>110</v>
       </c>
       <c r="H39" t="n">
-        <v>467</v>
+        <v>586</v>
       </c>
       <c r="I39" t="n">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="J39" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K39" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="40">
@@ -1785,25 +1904,28 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="E40" t="n">
-        <v>464</v>
+        <v>545</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.333333333333371</v>
+        <v>-34.66666666666674</v>
       </c>
       <c r="G40" t="n">
-        <v>-11</v>
+        <v>110</v>
       </c>
       <c r="H40" t="n">
-        <v>467</v>
+        <v>586</v>
       </c>
       <c r="I40" t="n">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="J40" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K40" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="41">
@@ -1819,25 +1941,28 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>460</v>
+        <v>669</v>
       </c>
       <c r="E41" t="n">
-        <v>464</v>
+        <v>545</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.333333333333371</v>
+        <v>-34.66666666666674</v>
       </c>
       <c r="G41" t="n">
-        <v>-11</v>
+        <v>110</v>
       </c>
       <c r="H41" t="n">
-        <v>467</v>
+        <v>586</v>
       </c>
       <c r="I41" t="n">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="J41" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K41" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="42">
@@ -1853,25 +1978,28 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>466</v>
+        <v>557</v>
       </c>
       <c r="E42" t="n">
-        <v>464</v>
+        <v>545</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.333333333333371</v>
+        <v>-34.66666666666674</v>
       </c>
       <c r="G42" t="n">
-        <v>-11</v>
+        <v>110</v>
       </c>
       <c r="H42" t="n">
-        <v>467</v>
+        <v>586</v>
       </c>
       <c r="I42" t="n">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="J42" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K42" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="43">
@@ -1887,25 +2015,28 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E43" t="n">
-        <v>464</v>
+        <v>545</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.333333333333371</v>
+        <v>-34.66666666666674</v>
       </c>
       <c r="G43" t="n">
-        <v>-11</v>
+        <v>110</v>
       </c>
       <c r="H43" t="n">
-        <v>467</v>
+        <v>586</v>
       </c>
       <c r="I43" t="n">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="J43" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K43" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="44">
@@ -1921,25 +2052,28 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>7357</v>
+        <v>198</v>
       </c>
       <c r="E44" t="n">
-        <v>7346</v>
+        <v>175</v>
       </c>
       <c r="F44" t="n">
-        <v>5.66666666666606</v>
+        <v>-55.33333333333334</v>
       </c>
       <c r="G44" t="n">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="H44" t="n">
-        <v>7340</v>
+        <v>191</v>
       </c>
       <c r="I44" t="n">
-        <v>7344</v>
+        <v>167</v>
       </c>
       <c r="J44" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K44" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="45">
@@ -1955,25 +2089,28 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>7341</v>
+        <v>217</v>
       </c>
       <c r="E45" t="n">
-        <v>7346</v>
+        <v>175</v>
       </c>
       <c r="F45" t="n">
-        <v>5.66666666666606</v>
+        <v>-55.33333333333334</v>
       </c>
       <c r="G45" t="n">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="H45" t="n">
-        <v>7340</v>
+        <v>191</v>
       </c>
       <c r="I45" t="n">
-        <v>7344</v>
+        <v>167</v>
       </c>
       <c r="J45" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K45" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="46">
@@ -1989,25 +2126,28 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>7350</v>
+        <v>50</v>
       </c>
       <c r="E46" t="n">
-        <v>7346</v>
+        <v>175</v>
       </c>
       <c r="F46" t="n">
-        <v>5.66666666666606</v>
+        <v>-55.33333333333334</v>
       </c>
       <c r="G46" t="n">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="H46" t="n">
-        <v>7340</v>
+        <v>191</v>
       </c>
       <c r="I46" t="n">
-        <v>7344</v>
+        <v>167</v>
       </c>
       <c r="J46" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K46" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="47">
@@ -2023,25 +2163,28 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>7337</v>
+        <v>85</v>
       </c>
       <c r="E47" t="n">
-        <v>7346</v>
+        <v>175</v>
       </c>
       <c r="F47" t="n">
-        <v>5.66666666666606</v>
+        <v>-55.33333333333334</v>
       </c>
       <c r="G47" t="n">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="H47" t="n">
-        <v>7340</v>
+        <v>191</v>
       </c>
       <c r="I47" t="n">
-        <v>7344</v>
+        <v>167</v>
       </c>
       <c r="J47" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K47" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="48">
@@ -2057,25 +2200,28 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>7343</v>
+        <v>297</v>
       </c>
       <c r="E48" t="n">
-        <v>7346</v>
+        <v>175</v>
       </c>
       <c r="F48" t="n">
-        <v>5.66666666666606</v>
+        <v>-55.33333333333334</v>
       </c>
       <c r="G48" t="n">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="H48" t="n">
-        <v>7340</v>
+        <v>191</v>
       </c>
       <c r="I48" t="n">
-        <v>7344</v>
+        <v>167</v>
       </c>
       <c r="J48" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K48" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="49">
@@ -2091,25 +2237,28 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>7351</v>
+        <v>249</v>
       </c>
       <c r="E49" t="n">
-        <v>7346</v>
+        <v>175</v>
       </c>
       <c r="F49" t="n">
-        <v>5.66666666666606</v>
+        <v>-55.33333333333334</v>
       </c>
       <c r="G49" t="n">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="H49" t="n">
-        <v>7340</v>
+        <v>191</v>
       </c>
       <c r="I49" t="n">
-        <v>7344</v>
+        <v>167</v>
       </c>
       <c r="J49" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K49" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="50">
@@ -2125,25 +2274,28 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>7349</v>
+        <v>229</v>
       </c>
       <c r="E50" t="n">
-        <v>7346</v>
+        <v>175</v>
       </c>
       <c r="F50" t="n">
-        <v>5.66666666666606</v>
+        <v>-55.33333333333334</v>
       </c>
       <c r="G50" t="n">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="H50" t="n">
-        <v>7340</v>
+        <v>191</v>
       </c>
       <c r="I50" t="n">
-        <v>7344</v>
+        <v>167</v>
       </c>
       <c r="J50" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K50" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="51">
@@ -2159,25 +2311,28 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="E51" t="n">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="F51" t="n">
-        <v>6.333333333333329</v>
+        <v>84.33333333333334</v>
       </c>
       <c r="G51" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="H51" t="n">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="I51" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J51" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K51" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="52">
@@ -2193,25 +2348,28 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="E52" t="n">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="F52" t="n">
-        <v>6.333333333333329</v>
+        <v>84.33333333333334</v>
       </c>
       <c r="G52" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="H52" t="n">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="I52" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J52" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K52" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="53">
@@ -2227,25 +2385,28 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="E53" t="n">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="F53" t="n">
-        <v>6.333333333333329</v>
+        <v>84.33333333333334</v>
       </c>
       <c r="G53" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="H53" t="n">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="I53" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J53" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K53" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="54">
@@ -2261,25 +2422,28 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E54" t="n">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="F54" t="n">
-        <v>6.333333333333329</v>
+        <v>84.33333333333334</v>
       </c>
       <c r="G54" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="H54" t="n">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="I54" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J54" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K54" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="55">
@@ -2295,25 +2459,28 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E55" t="n">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="F55" t="n">
-        <v>6.333333333333329</v>
+        <v>84.33333333333334</v>
       </c>
       <c r="G55" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="H55" t="n">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="I55" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J55" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K55" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="56">
@@ -2329,25 +2496,28 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="E56" t="n">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="F56" t="n">
-        <v>6.333333333333329</v>
+        <v>84.33333333333334</v>
       </c>
       <c r="G56" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="H56" t="n">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="I56" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J56" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K56" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="57">
@@ -2363,25 +2533,28 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="E57" t="n">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="F57" t="n">
-        <v>6.333333333333329</v>
+        <v>84.33333333333334</v>
       </c>
       <c r="G57" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="H57" t="n">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="I57" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J57" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K57" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="58">
@@ -2397,25 +2570,28 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>529</v>
+        <v>355</v>
       </c>
       <c r="E58" t="n">
-        <v>522</v>
+        <v>417</v>
       </c>
       <c r="F58" t="n">
-        <v>9.333333333333371</v>
+        <v>47</v>
       </c>
       <c r="G58" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="H58" t="n">
-        <v>514</v>
+        <v>338</v>
       </c>
       <c r="I58" t="n">
-        <v>517</v>
+        <v>394</v>
       </c>
       <c r="J58" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K58" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="59">
@@ -2431,25 +2607,28 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="E59" t="n">
-        <v>522</v>
+        <v>417</v>
       </c>
       <c r="F59" t="n">
-        <v>9.333333333333371</v>
+        <v>47</v>
       </c>
       <c r="G59" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="H59" t="n">
-        <v>514</v>
+        <v>338</v>
       </c>
       <c r="I59" t="n">
-        <v>517</v>
+        <v>394</v>
       </c>
       <c r="J59" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K59" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="60">
@@ -2465,25 +2644,28 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>534</v>
+        <v>387</v>
       </c>
       <c r="E60" t="n">
-        <v>522</v>
+        <v>417</v>
       </c>
       <c r="F60" t="n">
-        <v>9.333333333333371</v>
+        <v>47</v>
       </c>
       <c r="G60" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="H60" t="n">
-        <v>514</v>
+        <v>338</v>
       </c>
       <c r="I60" t="n">
-        <v>517</v>
+        <v>394</v>
       </c>
       <c r="J60" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K60" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="61">
@@ -2499,25 +2681,28 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>512</v>
+        <v>336</v>
       </c>
       <c r="E61" t="n">
-        <v>522</v>
+        <v>417</v>
       </c>
       <c r="F61" t="n">
-        <v>9.333333333333371</v>
+        <v>47</v>
       </c>
       <c r="G61" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="H61" t="n">
-        <v>514</v>
+        <v>338</v>
       </c>
       <c r="I61" t="n">
-        <v>517</v>
+        <v>394</v>
       </c>
       <c r="J61" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K61" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="62">
@@ -2533,25 +2718,28 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>516</v>
+        <v>340</v>
       </c>
       <c r="E62" t="n">
-        <v>522</v>
+        <v>417</v>
       </c>
       <c r="F62" t="n">
-        <v>9.333333333333371</v>
+        <v>47</v>
       </c>
       <c r="G62" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="H62" t="n">
-        <v>514</v>
+        <v>338</v>
       </c>
       <c r="I62" t="n">
-        <v>517</v>
+        <v>394</v>
       </c>
       <c r="J62" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K62" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="63">
@@ -2567,25 +2755,28 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>522</v>
+        <v>452</v>
       </c>
       <c r="E63" t="n">
-        <v>522</v>
+        <v>417</v>
       </c>
       <c r="F63" t="n">
-        <v>9.333333333333371</v>
+        <v>47</v>
       </c>
       <c r="G63" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="H63" t="n">
-        <v>514</v>
+        <v>338</v>
       </c>
       <c r="I63" t="n">
-        <v>517</v>
+        <v>394</v>
       </c>
       <c r="J63" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K63" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="64">
@@ -2601,25 +2792,28 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>511</v>
+        <v>377</v>
       </c>
       <c r="E64" t="n">
-        <v>522</v>
+        <v>417</v>
       </c>
       <c r="F64" t="n">
-        <v>9.333333333333371</v>
+        <v>47</v>
       </c>
       <c r="G64" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="H64" t="n">
-        <v>514</v>
+        <v>338</v>
       </c>
       <c r="I64" t="n">
-        <v>517</v>
+        <v>394</v>
       </c>
       <c r="J64" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K64" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="65">
@@ -2635,25 +2829,28 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1588</v>
+        <v>851</v>
       </c>
       <c r="E65" t="n">
-        <v>1586</v>
+        <v>890</v>
       </c>
       <c r="F65" t="n">
-        <v>4.666666666666515</v>
+        <v>-141.3333333333334</v>
       </c>
       <c r="G65" t="n">
-        <v>-11</v>
+        <v>131</v>
       </c>
       <c r="H65" t="n">
-        <v>1585</v>
+        <v>944</v>
       </c>
       <c r="I65" t="n">
-        <v>1588</v>
+        <v>943</v>
       </c>
       <c r="J65" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K65" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="66">
@@ -2669,25 +2866,28 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1594</v>
+        <v>834</v>
       </c>
       <c r="E66" t="n">
-        <v>1586</v>
+        <v>890</v>
       </c>
       <c r="F66" t="n">
-        <v>4.666666666666515</v>
+        <v>-141.3333333333334</v>
       </c>
       <c r="G66" t="n">
-        <v>-11</v>
+        <v>131</v>
       </c>
       <c r="H66" t="n">
-        <v>1585</v>
+        <v>944</v>
       </c>
       <c r="I66" t="n">
-        <v>1588</v>
+        <v>943</v>
       </c>
       <c r="J66" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K66" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="67">
@@ -2703,25 +2903,28 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1586</v>
+        <v>787</v>
       </c>
       <c r="E67" t="n">
-        <v>1586</v>
+        <v>890</v>
       </c>
       <c r="F67" t="n">
-        <v>4.666666666666515</v>
+        <v>-141.3333333333334</v>
       </c>
       <c r="G67" t="n">
-        <v>-11</v>
+        <v>131</v>
       </c>
       <c r="H67" t="n">
-        <v>1585</v>
+        <v>944</v>
       </c>
       <c r="I67" t="n">
-        <v>1588</v>
+        <v>943</v>
       </c>
       <c r="J67" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K67" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="68">
@@ -2737,25 +2940,28 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1592</v>
+        <v>878</v>
       </c>
       <c r="E68" t="n">
-        <v>1586</v>
+        <v>890</v>
       </c>
       <c r="F68" t="n">
-        <v>4.666666666666515</v>
+        <v>-141.3333333333334</v>
       </c>
       <c r="G68" t="n">
-        <v>-11</v>
+        <v>131</v>
       </c>
       <c r="H68" t="n">
-        <v>1585</v>
+        <v>944</v>
       </c>
       <c r="I68" t="n">
-        <v>1588</v>
+        <v>943</v>
       </c>
       <c r="J68" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K68" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="69">
@@ -2771,25 +2977,28 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1578</v>
+        <v>1010</v>
       </c>
       <c r="E69" t="n">
-        <v>1586</v>
+        <v>890</v>
       </c>
       <c r="F69" t="n">
-        <v>4.666666666666515</v>
+        <v>-141.3333333333334</v>
       </c>
       <c r="G69" t="n">
-        <v>-11</v>
+        <v>131</v>
       </c>
       <c r="H69" t="n">
-        <v>1585</v>
+        <v>944</v>
       </c>
       <c r="I69" t="n">
-        <v>1588</v>
+        <v>943</v>
       </c>
       <c r="J69" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K69" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="70">
@@ -2805,25 +3014,28 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1584</v>
+        <v>1008</v>
       </c>
       <c r="E70" t="n">
-        <v>1586</v>
+        <v>890</v>
       </c>
       <c r="F70" t="n">
-        <v>4.666666666666515</v>
+        <v>-141.3333333333334</v>
       </c>
       <c r="G70" t="n">
-        <v>-11</v>
+        <v>131</v>
       </c>
       <c r="H70" t="n">
-        <v>1585</v>
+        <v>944</v>
       </c>
       <c r="I70" t="n">
-        <v>1588</v>
+        <v>943</v>
       </c>
       <c r="J70" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K70" t="n">
+        <v>120.6</v>
       </c>
     </row>
     <row r="71">
@@ -2839,25 +3051,28 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1597</v>
+        <v>984</v>
       </c>
       <c r="E71" t="n">
-        <v>1586</v>
+        <v>890</v>
       </c>
       <c r="F71" t="n">
-        <v>4.666666666666515</v>
+        <v>-141.3333333333334</v>
       </c>
       <c r="G71" t="n">
-        <v>-11</v>
+        <v>131</v>
       </c>
       <c r="H71" t="n">
-        <v>1585</v>
+        <v>944</v>
       </c>
       <c r="I71" t="n">
-        <v>1588</v>
+        <v>943</v>
       </c>
       <c r="J71" t="n">
-        <v>7.599999999999909</v>
+        <v>62.59999999999997</v>
+      </c>
+      <c r="K71" t="n">
+        <v>120.6</v>
       </c>
     </row>
   </sheetData>
